--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,36 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D5735110220000; R5734042920000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>plate locking; plate</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-01-13 17:32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>quotes@iwingsaviation.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>iwings aviation fze</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,36 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>007-00219-0001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>transistor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-01-13 17:32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>as@flyplay.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>fly play hf.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,116 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No email found</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No email found</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No email found</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No email found</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No email found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,99 +659,19 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-01-17 18:34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AOGsupport@aythavacilik.com</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No email found</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No email found</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No email found</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>No email found</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Part Not Located in Part Master</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>No email found</t>
+          <t>ayt havacilik maintenance services</t>
         </is>
       </c>
     </row>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +675,36 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4061100-901</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>air data computer</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-01-17 18:57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sales@horizon-flights.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>horizon flights services ltd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,92 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8TC19AAH1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>thermocouple-hptcc</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-01-17 19:41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>quote@comet-aerospace.us</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pacmet aerospace</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4061100-901</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>air data computer</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-01-17 19:42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sales@horizon-flights.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>horizon flights services ltd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-01-17 19:42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No email found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,36 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>745-1101-507</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nozzle</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-01-21 12:22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>engcmu@srilankan.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>srilankan airlines</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +821,36 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>745-1101-507</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nozzle</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-01-21 13:05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>engcmu@srilankan.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>srilankan airlines</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,6 +851,36 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>745-1101-507</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nozzle</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-01-26 10:27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>engcmu@srilankan.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>srilankan airlines</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_scrape_results.xlsx
+++ b/email_scrape_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,6 +881,36 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Part Not Located in Part Master</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-01-27 13:31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>philipp.labs@aps-aviation.comTel</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>aps-aviation parts services</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
